--- a/FAIRe_checklist_v1.0.3.xlsx
+++ b/FAIRe_checklist_v1.0.3.xlsx
@@ -527,42 +527,42 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Date and time must be recorded following ISO 8601 format (yyyy-mm-ddThh:mm:ss)...</t>
+          <t>Date and time must be recorded following ISO 8601 format (yyyy-mm-ddThh:mm:ss). Time zone must be specified after the timestamp e.g., "2008-01-23T19:23-06:00" in the time zone six hours earlier than UTC, or "2008-01-23T19:23Z" at UTC time. In Excel, format the cell as text to prevent from automatic conversion to other date fromats.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Time duration must be recorded following ISO 8601 durations (PnYnMnWnDTnHnMnS...)</t>
+          <t>Time duration must be recorded following ISO 8601 durations (PnYnMnWnDTnHnMnS for P&lt;date&gt;T&lt;time&gt;). e.g., P1Y1M1DT1H1M1.1S = One year, one month, one day, one hour, one minute, one second, and 100 milliseconds</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>A date and time range can be specified using a forward slash (/) ...</t>
+          <t>A date and time range can be specified using a forward slash (/) to separate the start and end values (e.g., 2008-01-23T19:23-06:00/2008-01-23T19:53-06:00).</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Use space vertical bar space ( | ) to separate multiple values in a list...</t>
+          <t>Use space vertical bar space ( | ) to separate multiple values in a list. i.e., x | y | z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Use hyphen (-) to indicate a range of numeric or integer values...</t>
+          <t>Use hyphen (-) to indicate a range of numeric or integer values. In Excel, format the cell as text to prevent it from being auto-formatted as a date.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>For numeric fields, enter only numbers and do not enter units...</t>
+          <t>For numeric fields, enter only numbers and do not enter units. Read the descriptions for the standard unit.</t>
         </is>
       </c>
     </row>
@@ -576,21 +576,21 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>When "other" is selected..., write the answer using the format of "other: FREE TEXT DESCRIPTION".</t>
+          <t>When "other" is selected in a controlled vocabulary term, write the answer using the format of "other: FREE TEXT DESCRIPTION".</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>If suitable term names are not available..., users should search for them in MIxS or DwC...</t>
+          <t>If suitable term names are not available in the current checklist, users should search for them in existing standards, such as MIxS (https://genomicsstandardsconsortium.github.io/mixs/) and DwC (https://dwc.tdwg.org/terms/), and use these standardized terms where possible. If relevant terms cannot be found in these resources, users may add new terms using clear, concise, and descriptive names within related tables.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>When a value is missing from a mandatory term..., use the INSDC missing value vocabulary...</t>
+          <t>When a value is missing from a mandatory term, it is required to provide the reason using the INSDC missing value controlled vocabulary (https://www.insdc.org/submitting-standards/missing-value-reporting/). See https://fair-edna.github.io/guidelines.html#missing-values for the full list of values.</t>
         </is>
       </c>
     </row>
